--- a/phantich_thietke/cosodulieu.xlsx
+++ b/phantich_thietke/cosodulieu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Le Van Hung\Documents\GitHub\do_an1-j2chool\phantich - thietke\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Le Van Hung\Documents\GitHub\j2_project\phantich_thietke\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>nhan_vien</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>ngay_san_xuat</t>
+  </si>
+  <si>
+    <t>tinh_trang_don</t>
   </si>
 </sst>
 </file>
@@ -446,15 +449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -510,13 +513,16 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -566,95 +572,109 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="D15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E24" t="s">
-        <v>29</v>
+      <c r="D23" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
         <v>31</v>
       </c>
     </row>
